--- a/Excell/DataExtract.xlsx
+++ b/Excell/DataExtract.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\TFS\B2BSystem\DataExtraction\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GIT\B2BSPs\Excell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6164367-A13D-4819-888F-A628007E3604}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1383D518-CEF7-4CB2-BC1F-CAD4A68D43D4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{66B63B2C-6270-4150-86D0-C4C1E69FAD1E}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{66B63B2C-6270-4150-86D0-C4C1E69FAD1E}"/>
   </bookViews>
   <sheets>
     <sheet name="Specifications" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2484" uniqueCount="1564">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2557" uniqueCount="1564">
   <si>
     <t>Model</t>
   </si>
@@ -13825,8 +13825,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{351910FC-9BF8-429A-A292-BCA23655F17B}">
-  <dimension ref="A1:B27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:B53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B2:B11"/>
@@ -13951,58 +13951,218 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="27">
+        <v>1</v>
+      </c>
+      <c r="B28" s="27" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="27">
+        <v>2</v>
+      </c>
+      <c r="B29" s="27" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="27">
+        <v>3</v>
+      </c>
+      <c r="B30" s="27" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="27">
+        <v>4</v>
+      </c>
+      <c r="B31" s="27" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="27">
+        <v>5</v>
+      </c>
+      <c r="B32" s="27" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="27">
+        <v>6</v>
+      </c>
+      <c r="B33" s="27" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="27">
+        <v>7</v>
+      </c>
+      <c r="B34" s="27" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="27">
+        <v>8</v>
+      </c>
+      <c r="B35" s="27" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="27">
+        <v>9</v>
+      </c>
+      <c r="B36" s="27" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="27">
+        <v>10</v>
+      </c>
+      <c r="B37" s="27" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="27">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="27">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="27">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="27">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="27">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="27">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="27">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="27">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="27">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="27">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="27">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="27">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="27">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="27">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="27">
         <v>26</v>
       </c>
     </row>
@@ -14013,8 +14173,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A75C2B6F-4B1C-4C69-AAE8-EDE7C6AEB07E}">
-  <dimension ref="A1:C75"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:C149"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C13"/>
@@ -14729,58 +14889,806 @@
         <v>340</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="27">
+        <v>1</v>
+      </c>
+      <c r="B76" s="27">
+        <v>1</v>
+      </c>
+      <c r="C76" s="27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="27">
+        <v>2</v>
+      </c>
+      <c r="B77" s="27">
+        <v>1</v>
+      </c>
+      <c r="C77" s="27" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="27">
+        <v>3</v>
+      </c>
+      <c r="B78" s="27">
+        <v>1</v>
+      </c>
+      <c r="C78" s="27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="27">
+        <v>4</v>
+      </c>
+      <c r="B79" s="27">
+        <v>1</v>
+      </c>
+      <c r="C79" s="27" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="27">
+        <v>5</v>
+      </c>
+      <c r="B80" s="27">
+        <v>1</v>
+      </c>
+      <c r="C80" s="27" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="27">
+        <v>6</v>
+      </c>
+      <c r="B81" s="27">
+        <v>1</v>
+      </c>
+      <c r="C81" s="27" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="27">
+        <v>7</v>
+      </c>
+      <c r="B82" s="27">
+        <v>1</v>
+      </c>
+      <c r="C82" s="27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="27">
+        <v>8</v>
+      </c>
+      <c r="B83" s="27">
+        <v>1</v>
+      </c>
+      <c r="C83" s="27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="27">
+        <v>9</v>
+      </c>
+      <c r="B84" s="27">
+        <v>1</v>
+      </c>
+      <c r="C84" s="27" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="27">
+        <v>10</v>
+      </c>
+      <c r="B85" s="27">
+        <v>1</v>
+      </c>
+      <c r="C85" s="27" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="27">
+        <v>11</v>
+      </c>
+      <c r="B86" s="27">
+        <v>1</v>
+      </c>
+      <c r="C86" s="27" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="27">
+        <v>12</v>
+      </c>
+      <c r="B87" s="27">
+        <v>1</v>
+      </c>
+      <c r="C87" s="27" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="27">
+        <v>13</v>
+      </c>
+      <c r="B88" s="27">
+        <v>2</v>
+      </c>
+      <c r="C88" s="27" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="27">
+        <v>14</v>
+      </c>
+      <c r="B89" s="27">
+        <v>2</v>
+      </c>
+      <c r="C89" s="27" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="27">
+        <v>15</v>
+      </c>
+      <c r="B90" s="27">
+        <v>2</v>
+      </c>
+      <c r="C90" s="27" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="27">
+        <v>16</v>
+      </c>
+      <c r="B91" s="27">
+        <v>3</v>
+      </c>
+      <c r="C91" s="27" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="27">
+        <v>17</v>
+      </c>
+      <c r="B92" s="27">
+        <v>3</v>
+      </c>
+      <c r="C92" s="27" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="27">
+        <v>18</v>
+      </c>
+      <c r="B93" s="27">
+        <v>3</v>
+      </c>
+      <c r="C93" s="27" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="27">
+        <v>19</v>
+      </c>
+      <c r="B94" s="27">
+        <v>3</v>
+      </c>
+      <c r="C94" s="27" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="27">
+        <v>20</v>
+      </c>
+      <c r="B95" s="27">
+        <v>3</v>
+      </c>
+      <c r="C95" s="27" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="27">
+        <v>21</v>
+      </c>
+      <c r="B96" s="27">
+        <v>3</v>
+      </c>
+      <c r="C96" s="27" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="27">
+        <v>22</v>
+      </c>
+      <c r="B97" s="27">
+        <v>3</v>
+      </c>
+      <c r="C97" s="27" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="27">
+        <v>23</v>
+      </c>
+      <c r="B98" s="27">
+        <v>3</v>
+      </c>
+      <c r="C98" s="27" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="27">
+        <v>24</v>
+      </c>
+      <c r="B99" s="27">
+        <v>4</v>
+      </c>
+      <c r="C99" s="27" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="27">
+        <v>25</v>
+      </c>
+      <c r="B100" s="27">
+        <v>4</v>
+      </c>
+      <c r="C100" s="27" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="27">
+        <v>26</v>
+      </c>
+      <c r="B101" s="27">
+        <v>4</v>
+      </c>
+      <c r="C101" s="27" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="27">
+        <v>27</v>
+      </c>
+      <c r="B102" s="27">
+        <v>4</v>
+      </c>
+      <c r="C102" s="27" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="27">
+        <v>28</v>
+      </c>
+      <c r="B103" s="27">
+        <v>4</v>
+      </c>
+      <c r="C103" s="27" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="27">
+        <v>29</v>
+      </c>
+      <c r="B104" s="27">
+        <v>4</v>
+      </c>
+      <c r="C104" s="27" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="27">
+        <v>30</v>
+      </c>
+      <c r="B105" s="27">
+        <v>4</v>
+      </c>
+      <c r="C105" s="27" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="27">
+        <v>31</v>
+      </c>
+      <c r="B106" s="27">
+        <v>4</v>
+      </c>
+      <c r="C106" s="27" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="27">
+        <v>32</v>
+      </c>
+      <c r="B107" s="27">
+        <v>4</v>
+      </c>
+      <c r="C107" s="27" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="27">
+        <v>33</v>
+      </c>
+      <c r="B108" s="27">
+        <v>5</v>
+      </c>
+      <c r="C108" s="27" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="27">
+        <v>34</v>
+      </c>
+      <c r="B109" s="27">
+        <v>6</v>
+      </c>
+      <c r="C109" s="27" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="27">
+        <v>35</v>
+      </c>
+      <c r="B110" s="27">
+        <v>6</v>
+      </c>
+      <c r="C110" s="27" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="27">
+        <v>36</v>
+      </c>
+      <c r="B111" s="27">
+        <v>6</v>
+      </c>
+      <c r="C111" s="27" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="27">
+        <v>37</v>
+      </c>
+      <c r="B112" s="27">
+        <v>6</v>
+      </c>
+      <c r="C112" s="27" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="27">
+        <v>38</v>
+      </c>
+      <c r="B113" s="27">
+        <v>6</v>
+      </c>
+      <c r="C113" s="27" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="27">
+        <v>39</v>
+      </c>
+      <c r="B114" s="27">
+        <v>6</v>
+      </c>
+      <c r="C114" s="27" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="27">
+        <v>40</v>
+      </c>
+      <c r="B115" s="27">
+        <v>6</v>
+      </c>
+      <c r="C115" s="27" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="27">
+        <v>41</v>
+      </c>
+      <c r="B116" s="27">
+        <v>6</v>
+      </c>
+      <c r="C116" s="27" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="27">
+        <v>42</v>
+      </c>
+      <c r="B117" s="27">
+        <v>7</v>
+      </c>
+      <c r="C117" s="27" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="27">
+        <v>43</v>
+      </c>
+      <c r="B118" s="27">
+        <v>7</v>
+      </c>
+      <c r="C118" s="27" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="27">
+        <v>44</v>
+      </c>
+      <c r="B119" s="27">
+        <v>7</v>
+      </c>
+      <c r="C119" s="27" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="27">
+        <v>45</v>
+      </c>
+      <c r="B120" s="27">
+        <v>8</v>
+      </c>
+      <c r="C120" s="27" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="27">
+        <v>46</v>
+      </c>
+      <c r="B121" s="27">
+        <v>8</v>
+      </c>
+      <c r="C121" s="27" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="27">
+        <v>47</v>
+      </c>
+      <c r="B122" s="27">
+        <v>8</v>
+      </c>
+      <c r="C122" s="27" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="27">
+        <v>48</v>
+      </c>
+      <c r="B123" s="27">
+        <v>8</v>
+      </c>
+      <c r="C123" s="27" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="27">
+        <v>49</v>
+      </c>
+      <c r="B124" s="27">
+        <v>8</v>
+      </c>
+      <c r="C124" s="27" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="27">
+        <v>50</v>
+      </c>
+      <c r="B125" s="27">
+        <v>8</v>
+      </c>
+      <c r="C125" s="27" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="27">
+        <v>51</v>
+      </c>
+      <c r="B126" s="27">
+        <v>8</v>
+      </c>
+      <c r="C126" s="27" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="27">
+        <v>52</v>
+      </c>
+      <c r="B127" s="27">
+        <v>8</v>
+      </c>
+      <c r="C127" s="27" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="27">
+        <v>53</v>
+      </c>
+      <c r="B128" s="27">
+        <v>8</v>
+      </c>
+      <c r="C128" s="27" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="27">
+        <v>54</v>
+      </c>
+      <c r="B129" s="27">
+        <v>8</v>
+      </c>
+      <c r="C129" s="27" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="27">
+        <v>55</v>
+      </c>
+      <c r="B130" s="27">
+        <v>8</v>
+      </c>
+      <c r="C130" s="27" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="27">
+        <v>56</v>
+      </c>
+      <c r="B131" s="27">
+        <v>9</v>
+      </c>
+      <c r="C131" s="27" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="27">
+        <v>57</v>
+      </c>
+      <c r="B132" s="27">
+        <v>9</v>
+      </c>
+      <c r="C132" s="27" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="27">
+        <v>58</v>
+      </c>
+      <c r="B133" s="27">
+        <v>9</v>
+      </c>
+      <c r="C133" s="27" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="27">
+        <v>59</v>
+      </c>
+      <c r="B134" s="27">
+        <v>9</v>
+      </c>
+      <c r="C134" s="27" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="27">
+        <v>60</v>
+      </c>
+      <c r="B135" s="27">
+        <v>9</v>
+      </c>
+      <c r="C135" s="27" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="27">
+        <v>61</v>
+      </c>
+      <c r="B136" s="27">
+        <v>10</v>
+      </c>
+      <c r="C136" s="27" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="27">
+        <v>62</v>
+      </c>
+      <c r="B137" s="27">
+        <v>10</v>
+      </c>
+      <c r="C137" s="27" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="27">
+        <v>63</v>
+      </c>
+      <c r="B138" s="27">
+        <v>10</v>
+      </c>
+      <c r="C138" s="27" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="27">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="27">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="27">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="27">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="27">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="27">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" s="27">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" s="27">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="27">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="27">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="27">
         <v>74</v>
       </c>
     </row>
@@ -14790,11 +15698,11 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E44422AA-8C8D-4204-8FB8-58B9106924B1}">
-  <dimension ref="A1:D509"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:D728"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48:D51"/>
+    <sheetView tabSelected="1" topLeftCell="A701" workbookViewId="0">
+      <selection activeCell="O710" sqref="O710"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19310,940 +20218,53 @@
         <v>352</v>
       </c>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A323">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A324">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A325">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A326">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A327">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A328">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A329">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A330">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A331">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A332">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A333">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A334">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A335">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A336">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A337">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A338">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A339">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A340">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A341">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A342">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A343">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A344">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A345">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A346">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A347">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A348">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A349">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A350">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A351">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A352">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A353">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A354">
-        <v>353</v>
-      </c>
-    </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A355">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A356">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A357">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A358">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A359">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A360">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A361">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A362">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A363">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A364">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A365">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A366">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A367">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A368">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A369">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A370">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A371">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A372">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A373">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A374">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A375">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A376">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A377">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A378">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A379">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A380">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A381">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A382">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A383">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A384">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A385">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A386">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A387">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A388">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A389">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A390">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A391">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A392">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A393">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A394">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A395">
-        <v>394</v>
-      </c>
-    </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A396">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A397">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A398">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A399">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A400">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A401">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A402">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A403">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A404">
-        <v>403</v>
-      </c>
-    </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A405">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A406">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A407">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A408">
-        <v>407</v>
-      </c>
-    </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A409">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A410">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A411">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A412">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A413">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A414">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A415">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A416">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A417">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A418">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A419">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A420">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A421">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A422">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A423">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A424">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A425">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A426">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A427">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A428">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A429">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A430">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A431">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A432">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A433">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A434">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A435">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A436">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A437">
-        <v>436</v>
-      </c>
-    </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A438">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A439">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A440">
-        <v>439</v>
-      </c>
-    </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A441">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A442">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A443">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A444">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A445">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A446">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A447">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A448">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A449">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A450">
-        <v>449</v>
-      </c>
-    </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A451">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A452">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="453" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A453">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A454">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A455">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A456">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A457">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A458">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A459">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A460">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A461">
-        <v>460</v>
-      </c>
-    </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A462">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="463" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A463">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="464" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A464">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="465" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A465">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="466" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A466">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="467" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A467">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="468" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A468">
-        <v>467</v>
-      </c>
-    </row>
-    <row r="469" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A469">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="470" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A470">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="471" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A471">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="472" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A472">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="473" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A473">
-        <v>472</v>
-      </c>
-    </row>
-    <row r="474" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A474">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="475" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A475">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="476" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A476">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="477" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A477">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="478" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A478">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="479" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A479">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="480" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A480">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="481" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A481">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="482" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A482">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="483" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A483">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="484" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A484">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="485" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A485">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="486" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A486">
-        <v>485</v>
-      </c>
-    </row>
-    <row r="487" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A487">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="488" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A488">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="489" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A489">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="490" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A490">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="491" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A491">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="492" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A492">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="493" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A493">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="494" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A494">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="495" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A495">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="496" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A496">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="497" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A497">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="498" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A498">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="499" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A499">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="500" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A500">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="501" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A501">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="502" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A502">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="503" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A503">
-        <v>502</v>
-      </c>
-    </row>
-    <row r="504" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A504">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="505" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A505">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="506" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A506">
-        <v>505</v>
-      </c>
-    </row>
-    <row r="507" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A507">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="508" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A508">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="509" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A509">
-        <v>508</v>
-      </c>
+    <row r="721" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A721" s="27"/>
+      <c r="B721" s="27"/>
+      <c r="C721" s="27"/>
+      <c r="D721" s="27"/>
+    </row>
+    <row r="722" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A722" s="27"/>
+      <c r="B722" s="27"/>
+      <c r="C722" s="27"/>
+      <c r="D722" s="27"/>
+    </row>
+    <row r="723" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A723" s="27"/>
+      <c r="B723" s="27"/>
+      <c r="C723" s="27"/>
+      <c r="D723" s="27"/>
+    </row>
+    <row r="724" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A724" s="27"/>
+      <c r="B724" s="27"/>
+      <c r="C724" s="27"/>
+      <c r="D724" s="27"/>
+    </row>
+    <row r="725" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A725" s="27"/>
+      <c r="B725" s="27"/>
+      <c r="C725" s="27"/>
+      <c r="D725" s="27"/>
+    </row>
+    <row r="726" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A726" s="27"/>
+      <c r="B726" s="27"/>
+      <c r="C726" s="27"/>
+      <c r="D726" s="27"/>
+    </row>
+    <row r="727" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A727" s="27"/>
+      <c r="B727" s="27"/>
+      <c r="C727" s="27"/>
+      <c r="D727" s="27"/>
+    </row>
+    <row r="728" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A728" s="27"/>
+      <c r="B728" s="27"/>
+      <c r="C728" s="27"/>
+      <c r="D728" s="27"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
